--- a/KeyWordAndDataDrivenFrameWork/testData/163邮箱创建联系人并发送邮件.xlsx
+++ b/KeyWordAndDataDrivenFrameWork/testData/163邮箱创建联系人并发送邮件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="143">
   <si>
     <t>序号</t>
   </si>
@@ -47,10 +47,10 @@
     <t>结果</t>
   </si>
   <si>
-    <t>登录163邮箱</t>
-  </si>
-  <si>
-    <t>使用有效的账号登录163邮箱</t>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>使用有效的租户账号账号</t>
   </si>
   <si>
     <t>关键字</t>
@@ -119,13 +119,13 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>访问被测试网址http://www.163.com</t>
+    <t>访问被测试网址</t>
   </si>
   <si>
     <t>visit_url</t>
   </si>
   <si>
-    <t>http://www.163.com</t>
+    <t>http://128.196.108.10:8080/#/login</t>
   </si>
   <si>
     <t>最大化窗口</t>
@@ -134,238 +134,232 @@
     <t>maximize_browser</t>
   </si>
   <si>
-    <t>等待163邮箱登录主页加载完成</t>
+    <t>等待鲁班登录主页加载完成</t>
   </si>
   <si>
     <t>sleep</t>
   </si>
   <si>
-    <t>断言当前活动页面源码中是否包含"163网易免费邮--你的专业电子邮局"</t>
+    <t>断言当前页面标题中是否包含"schedule-prj"</t>
+  </si>
+  <si>
+    <t>assert_title</t>
+  </si>
+  <si>
+    <t>schedule-prj</t>
+  </si>
+  <si>
+    <t>输入登录用户名</t>
+  </si>
+  <si>
+    <t>input_string</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>/html/head/title</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>输入登录密码</t>
+  </si>
+  <si>
+    <t>//input[@name='password']</t>
+  </si>
+  <si>
+    <t>单击登录按钮</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>dologin</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>切换默认会话窗体</t>
+  </si>
+  <si>
+    <t>switch_to_default_content</t>
+  </si>
+  <si>
+    <t>断言登录成功后的页面标题是否包含“网易邮箱6.0版”关键内容</t>
+  </si>
+  <si>
+    <t>网易邮箱6.0版</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>是否设为星标联系人</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>执行结果</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>sr@qq.com</t>
+  </si>
+  <si>
+    <t>15xxxxxxxxx</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>wcx</t>
+  </si>
+  <si>
+    <t>wcx@qq.com</t>
+  </si>
+  <si>
+    <t>15555xxxxx</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>星标联系人</t>
+  </si>
+  <si>
+    <t>amy</t>
+  </si>
+  <si>
+    <t>amy@qq.com</t>
+  </si>
+  <si>
+    <t>168xxxxxxxx</t>
+  </si>
+  <si>
+    <t>一面之缘的人</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>单击"首页"链接，进入邮箱首页</t>
+  </si>
+  <si>
+    <t>//div[.='首页']</t>
+  </si>
+  <si>
+    <t>判断"写信"按钮是否在页面上可见</t>
+  </si>
+  <si>
+    <t>waitVisibilityOfElementLocated</t>
+  </si>
+  <si>
+    <t>//span[text()='写信']</t>
+  </si>
+  <si>
+    <t>单击"写信"按钮</t>
+  </si>
+  <si>
+    <t>输入收件人地址</t>
+  </si>
+  <si>
+    <t>//div[contains(@id, '_mail_email_ input')]/input</t>
+  </si>
+  <si>
+    <t>xxx@qq.com</t>
+  </si>
+  <si>
+    <t>输入邮件主题</t>
+  </si>
+  <si>
+    <t>//div[@aria-label = '邮件主题输入框,请输入邮件主题']/input</t>
+  </si>
+  <si>
+    <t>带附件的邮件</t>
+  </si>
+  <si>
+    <t>单击'上传附件'链接</t>
+  </si>
+  <si>
+    <t>//div[contains(@title, '600首MP3')]</t>
+  </si>
+  <si>
+    <t>输入附件所在绝对路径</t>
+  </si>
+  <si>
+    <t>paste_string</t>
+  </si>
+  <si>
+    <t>d:\\a.txt</t>
+  </si>
+  <si>
+    <t>模拟键盘回车键</t>
+  </si>
+  <si>
+    <t>press_enter_key</t>
+  </si>
+  <si>
+    <t>显示等待附件上传完毕</t>
+  </si>
+  <si>
+    <t>waiitVisibilityOfElementLocated</t>
+  </si>
+  <si>
+    <t>//span[text()="上传完成"]</t>
+  </si>
+  <si>
+    <t>如果邮件正文的frame框是可见，切换进该frame中</t>
+  </si>
+  <si>
+    <t>waitFrameToBeAvailableAndSwitchToIt</t>
+  </si>
+  <si>
+    <t>//iframe[@tabindex=1]</t>
+  </si>
+  <si>
+    <t>输入邮件正文</t>
+  </si>
+  <si>
+    <t>/html/body</t>
+  </si>
+  <si>
+    <t>发送给伟大的卫国战争的一封信</t>
+  </si>
+  <si>
+    <t>退出邮件正文的frame</t>
+  </si>
+  <si>
+    <t>单击邮件发送按钮</t>
+  </si>
+  <si>
+    <t>//header//span[text()='发送']</t>
+  </si>
+  <si>
+    <t>等待邮件发送成功，返回结果</t>
+  </si>
+  <si>
+    <t>断言登录成功后的页面源码中是否出现“发送成功”关键内容</t>
   </si>
   <si>
     <t>assert_string_in_pagesource</t>
-  </si>
-  <si>
-    <t>163网易免费邮--你的专业电子邮局</t>
-  </si>
-  <si>
-    <t>显示等待id属性值x-URS-iframe的frame框的出现，然后切换进入该frame框中</t>
-  </si>
-  <si>
-    <t>waitFrameToBeAvailableAndSwitchToIt</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>x-URS-iframe</t>
-  </si>
-  <si>
-    <t>输入登录用户名</t>
-  </si>
-  <si>
-    <t>input_string</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>//input[@name='email']</t>
-  </si>
-  <si>
-    <t>xxx</t>
-  </si>
-  <si>
-    <t>输入登录密码</t>
-  </si>
-  <si>
-    <t>//input[@name='password']</t>
-  </si>
-  <si>
-    <t>单击登录按钮</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>dologin</t>
-  </si>
-  <si>
-    <t>等待</t>
-  </si>
-  <si>
-    <t>切换默认会话窗体</t>
-  </si>
-  <si>
-    <t>switch_to_default_content</t>
-  </si>
-  <si>
-    <t>断言登录成功后的页面标题是否包含“网易邮箱6.0版”关键内容</t>
-  </si>
-  <si>
-    <t>assert_title</t>
-  </si>
-  <si>
-    <t>网易邮箱6.0版</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>电子邮箱</t>
-  </si>
-  <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>是否设为星标联系人</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>执行结果</t>
-  </si>
-  <si>
-    <t>sr</t>
-  </si>
-  <si>
-    <t>sr@qq.com</t>
-  </si>
-  <si>
-    <t>15xxxxxxxxx</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>wcx</t>
-  </si>
-  <si>
-    <t>wcx@qq.com</t>
-  </si>
-  <si>
-    <t>15555xxxxx</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>星标联系人</t>
-  </si>
-  <si>
-    <t>amy</t>
-  </si>
-  <si>
-    <t>amy@qq.com</t>
-  </si>
-  <si>
-    <t>168xxxxxxxx</t>
-  </si>
-  <si>
-    <t>一面之缘的人</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>单击"首页"链接，进入邮箱首页</t>
-  </si>
-  <si>
-    <t>//div[.='首页']</t>
-  </si>
-  <si>
-    <t>判断"写信"按钮是否在页面上可见</t>
-  </si>
-  <si>
-    <t>waitVisibilityOfElementLocated</t>
-  </si>
-  <si>
-    <t>//span[text()='写信']</t>
-  </si>
-  <si>
-    <t>单击"写信"按钮</t>
-  </si>
-  <si>
-    <t>输入收件人地址</t>
-  </si>
-  <si>
-    <t>//div[contains(@id, '_mail_email_ input')]/input</t>
-  </si>
-  <si>
-    <t>xxx@qq.com</t>
-  </si>
-  <si>
-    <t>输入邮件主题</t>
-  </si>
-  <si>
-    <t>//div[@aria-label = '邮件主题输入框,请输入邮件主题']/input</t>
-  </si>
-  <si>
-    <t>带附件的邮件</t>
-  </si>
-  <si>
-    <t>单击'上传附件'链接</t>
-  </si>
-  <si>
-    <t>//div[contains(@title, '600首MP3')]</t>
-  </si>
-  <si>
-    <t>输入附件所在绝对路径</t>
-  </si>
-  <si>
-    <t>paste_string</t>
-  </si>
-  <si>
-    <t>d:\\a.txt</t>
-  </si>
-  <si>
-    <t>模拟键盘回车键</t>
-  </si>
-  <si>
-    <t>press_enter_key</t>
-  </si>
-  <si>
-    <t>显示等待附件上传完毕</t>
-  </si>
-  <si>
-    <t>waiitVisibilityOfElementLocated</t>
-  </si>
-  <si>
-    <t>//span[text()="上传完成"]</t>
-  </si>
-  <si>
-    <t>如果邮件正文的frame框是可见，切换进该frame中</t>
-  </si>
-  <si>
-    <t>//iframe[@tabindex=1]</t>
-  </si>
-  <si>
-    <t>输入邮件正文</t>
-  </si>
-  <si>
-    <t>/html/body</t>
-  </si>
-  <si>
-    <t>发送给伟大的卫国战争的一封信</t>
-  </si>
-  <si>
-    <t>退出邮件正文的frame</t>
-  </si>
-  <si>
-    <t>单击邮件发送按钮</t>
-  </si>
-  <si>
-    <t>//header//span[text()='发送']</t>
-  </si>
-  <si>
-    <t>等待邮件发送成功，返回结果</t>
-  </si>
-  <si>
-    <t>断言登录成功后的页面源码中是否出现“发送成功”关键内容</t>
   </si>
   <si>
     <t>发送成功</t>
@@ -460,10 +454,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -482,15 +476,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,7 +500,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,37 +529,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,14 +550,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -579,16 +558,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,7 +591,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,7 +599,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,187 +621,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,6 +820,51 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,21 +887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -878,21 +902,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -903,21 +912,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -926,10 +920,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -938,16 +932,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -956,115 +950,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1435,7 +1429,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1469,7 +1463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="57.6" spans="1:9">
+    <row r="2" ht="43.2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1485,7 +1479,9 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1550,10 +1546,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1618,7 +1614,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" ht="43.2" spans="1:10">
+    <row r="3" ht="72" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1669,14 +1665,14 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" ht="57.6" spans="1:10">
+    <row r="6" ht="28.8" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1696,9 +1692,9 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" ht="28.8" spans="1:10">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>43</v>
@@ -1712,7 +1708,9 @@
       <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1720,22 +1718,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1744,23 +1742,21 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1768,21 +1764,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1790,65 +1784,45 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>5</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" ht="28.8" spans="1:10">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" ht="28.8" spans="1:10">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="http://www.163.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="http://128.196.108.10:8080/#/login" tooltip="http://128.196.108.10:8080/#/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1880,19 +1854,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1901,7 +1875,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:7">
@@ -1909,19 +1883,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>13</v>
@@ -1932,19 +1906,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>13</v>
@@ -1955,22 +1929,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1989,8 +1963,8 @@
   <sheetPr/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I4" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2035,16 +2009,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2057,16 +2031,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2079,16 +2053,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2101,19 +2075,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2125,19 +2099,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2149,16 +2123,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2171,15 +2145,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2191,10 +2165,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2209,16 +2183,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2230,16 +2204,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2252,19 +2226,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2276,10 +2250,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2294,16 +2268,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -2316,7 +2290,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
@@ -2336,15 +2310,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2356,10 +2330,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2378,8 +2352,8 @@
   <sheetPr/>
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2424,16 +2398,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2446,16 +2420,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2468,16 +2442,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2490,16 +2464,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2512,19 +2486,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2536,19 +2510,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2560,19 +2534,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2584,19 +2558,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2608,19 +2582,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2632,16 +2606,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2654,7 +2628,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
@@ -2674,15 +2648,15 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -2694,10 +2668,10 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" s="1"/>
     </row>

--- a/KeyWordAndDataDrivenFrameWork/testData/163邮箱创建联系人并发送邮件.xlsx
+++ b/KeyWordAndDataDrivenFrameWork/testData/163邮箱创建联系人并发送邮件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="16884" windowHeight="9624"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
@@ -456,8 +456,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -476,46 +476,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,7 +506,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,19 +520,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,13 +536,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -589,9 +544,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,8 +588,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,97 +621,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,85 +783,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,11 +815,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,17 +854,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,18 +889,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,17 +912,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -920,10 +920,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,16 +932,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,115 +950,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1428,8 +1428,8 @@
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1548,7 +1548,7 @@
   <sheetPr/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
